--- a/Test Scenarios.xlsx
+++ b/Test Scenarios.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SOFTWERE TESTING\Manual Testing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF82788-F603-429F-85CA-9D7D2A562147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="12" xr2:uid="{B4A47B16-E043-4DA5-9F5F-AB9EEB2985E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Whatsapp chat messages" sheetId="1" r:id="rId1"/>
@@ -27,9 +21,9 @@
     <sheet name="Whatsapp payment" sheetId="13" r:id="rId12"/>
     <sheet name="Gmail" sheetId="15" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,23 +40,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="193">
-  <si>
-    <t xml:space="preserve">Test Scenarios Pen </t>
-  </si>
-  <si>
-    <t>Test Scenarios  pen</t>
-  </si>
-  <si>
-    <t>Test Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="189">
   <si>
     <t xml:space="preserve">Test Scenarios whatsapp chat messages </t>
   </si>
   <si>
-    <t>Test Scenarios whatsapp chat messages</t>
-  </si>
-  <si>
     <t>TS1</t>
   </si>
   <si>
@@ -573,65 +555,77 @@
     <t>Test Scenarios Pen stand</t>
   </si>
   <si>
-    <t>Test Scenarios  pen stand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Scenarios door </t>
-  </si>
-  <si>
-    <t>Test Scenarios  door</t>
-  </si>
-  <si>
-    <t>Test Scenarios ATM</t>
-  </si>
-  <si>
-    <t>Test Scenarios  ATM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Scenarios microwave owen </t>
-  </si>
-  <si>
     <t>Test Scenarios microwave owen</t>
   </si>
   <si>
-    <t>Test Scenarios coffee vending machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Scenarios chair </t>
-  </si>
-  <si>
-    <t>Test Scenarios chair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Scenarios wrist watch </t>
-  </si>
-  <si>
-    <t>Test Scenarios wrist watch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Scenarios lift </t>
-  </si>
-  <si>
-    <t>Test Scenarios lift</t>
-  </si>
-  <si>
-    <t>Test Scenarios whatsapp group</t>
-  </si>
-  <si>
-    <t>Test Scenarios whatsapp payment</t>
-  </si>
-  <si>
-    <t>Test scenario gmail</t>
-  </si>
-  <si>
-    <t>Test Scenarios gmail</t>
+    <t>Test Scenarios</t>
+  </si>
+  <si>
+    <t>Test Scenarios Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Test Scenarios  of pen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                 Test Scenarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                         Test Scenarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenarios of door </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   Test Scenarios  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenarios </t>
+  </si>
+  <si>
+    <t>Test Scenarios of ATM</t>
+  </si>
+  <si>
+    <t>Test Scenario Id</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test Scenarios coffee vending machine</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   Test Scenarios of wrist watch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     Test Scenarios of chair </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         Test Scenarios of lift </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Test Scenarios of whatsapp group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Test Scenarios of whatsapp payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                            Test scenario of gmail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -724,18 +718,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,7 +803,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -848,7 +855,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1042,1747 +1049,1710 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B523D1F0-42CD-401B-B10E-27272DF2674A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75">
+      <c r="A2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="7" spans="1:4" ht="30">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="12" spans="1:4" ht="30">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629769AF-81C3-484C-8E99-363A37BE2F32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="63.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B5" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.5" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="33" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="14" t="s">
+    <row r="8" spans="1:2" ht="27.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="9" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="10" spans="1:2" ht="26.25" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    <row r="11" spans="1:2" ht="27" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="12" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="13" spans="1:2" ht="21" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA9C92D-8183-423B-BD4E-0D120DF92F51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="32.25" customHeight="1">
       <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="27" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B5" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="9" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="10" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    <row r="11" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB9AFD4-A380-433A-BBF6-DD1FC8B813F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="69.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="10" spans="1:2" ht="30.75" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB621062-FFC4-4346-908D-3E1DE346B1E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="90.85546875" customWidth="1"/>
+    <col min="2" max="2" width="94.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.5" customHeight="1">
       <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29.25" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B5" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.5" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="23.25" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="17" t="s">
+    <row r="8" spans="1:2" ht="32.25" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="17" t="s">
+    <row r="9" spans="1:2" ht="25.5" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    <row r="10" spans="1:2" ht="25.5" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="17" t="s">
+    <row r="11" spans="1:2" ht="27.75" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="17" t="s">
+    <row r="12" spans="1:2" ht="0.75" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="17" t="s">
+    <row r="13" spans="1:2" ht="39.75" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="17" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E147D21F-6BB0-44BC-8138-BFEB869D71F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="91" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B5" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="12" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="12" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="12" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="12" t="s">
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="12" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C75652-68A6-4897-BFE8-EF319BFAA817}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="76.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="20"/>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="25"/>
+      <c r="B1" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F867D898-446A-48E8-9E0D-A8A195AFA767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="67.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="20"/>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="25"/>
+      <c r="B1" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B5" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="14" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="14" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="14" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="B14" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E877E4-5CAD-476A-84DA-E5F5B0F1DEA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="20"/>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="25"/>
+      <c r="B1" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B5" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="11" t="s">
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="15" t="s">
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="11" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="11" t="s">
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="11" t="s">
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="11" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="11" t="s">
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="15" t="s">
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="B16" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B17" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="21" spans="1:2" ht="45">
+      <c r="A21" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B21" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B0CD30-8FE0-4E74-B4CF-5B6DB4B499DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="65.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B5" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25066B50-3928-44D7-856D-092C3799FBA9}">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.28515625" customWidth="1"/>
     <col min="2" max="2" width="106.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="2" spans="1:2" ht="21">
+      <c r="B2" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.5" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B6" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="16" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="15" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="16" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="16" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="16" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="15" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="16" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="16" t="s">
+    <row r="18" spans="1:2" ht="20.25" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="16" t="s">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAE20B2-387A-4732-9745-3E713328FC8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B5" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="14" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="14" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="14" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="14" t="s">
+    <row r="15" spans="1:11" ht="21">
+      <c r="A15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="18.75">
       <c r="J16" s="3"/>
       <c r="K16" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D99C5A-7776-4281-A2D0-4256878FEF77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.5" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="29.25" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B7" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="10" spans="1:6" ht="30.75" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    <row r="11" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="12" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14" t="s">
+    <row r="13" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="14" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="10" t="s">
+    <row r="15" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="1">
     <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
